--- a/assets/Data Collections/Hotels.xlsx
+++ b/assets/Data Collections/Hotels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrekBuddy\assets\Data Collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\TrekBuddy\assets\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709977D0-8A41-4B8C-A0C7-3FA1A37E2D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F31EAAF-6A0F-42EF-91D3-52DD517189F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="1" activeTab="4" xr2:uid="{37E7D56D-6777-4D1B-80CD-EA7A4F836EB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{37E7D56D-6777-4D1B-80CD-EA7A4F836EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="All Temples " sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="150">
   <si>
     <t>Deity / Denomination</t>
   </si>
@@ -101,13 +101,391 @@
   </si>
   <si>
     <t>Images Url</t>
+  </si>
+  <si>
+    <t>Hotel Annamalai International</t>
+  </si>
+  <si>
+    <t>Deluxe, Suite</t>
+  </si>
+  <si>
+    <t>₹3500–6000</t>
+  </si>
+  <si>
+    <t>12 PM / 11 AM</t>
+  </si>
+  <si>
+    <t>White Town</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Hotel+Annamalai+International+Puducherry</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Hotel Atithi</t>
+  </si>
+  <si>
+    <t>AC, Non-AC</t>
+  </si>
+  <si>
+    <t>₹2500–4500</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Hotel+Atithi+Puducherry</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Le Pondy</t>
+  </si>
+  <si>
+    <t>Cottages, Villas</t>
+  </si>
+  <si>
+    <t>₹7000–12000</t>
+  </si>
+  <si>
+    <t>2 PM / 12 PM</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Le+Pondy+Resort</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Ginger Pondicherry</t>
+  </si>
+  <si>
+    <t>Standard Rooms</t>
+  </si>
+  <si>
+    <t>₹2800–4000</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Ginger+Hotel+Pondicherry</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Accord Puducherry</t>
+  </si>
+  <si>
+    <t>Executive, Suite</t>
+  </si>
+  <si>
+    <t>₹5000–8000</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Accord+Hotel+Pondicherry</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saram</t>
+  </si>
+  <si>
+    <t>0413 224 7001</t>
+  </si>
+  <si>
+    <t>https://share.google/SyQ34GLUVbgNRaU5n</t>
+  </si>
+  <si>
+    <t>https://share.google/zXmdhlGf9bY7KpHx7</t>
+  </si>
+  <si>
+    <t>0413 220 7500</t>
+  </si>
+  <si>
+    <t>Heritage Town</t>
+  </si>
+  <si>
+    <t>0471 350 5303</t>
+  </si>
+  <si>
+    <t>https://share.google/12Sf2lnuUBZLj1V6G</t>
+  </si>
+  <si>
+    <t>Pudukuppam</t>
+  </si>
+  <si>
+    <t>0413 666 3333</t>
+  </si>
+  <si>
+    <t>Karuvadikuppam Main Rd</t>
+  </si>
+  <si>
+    <t>https://share.google/URHjdODJ8qCWukPcQ</t>
+  </si>
+  <si>
+    <t>https://share.google/t06yPZNlvx2gc7aGT</t>
+  </si>
+  <si>
+    <t>0413 229 9000</t>
+  </si>
+  <si>
+    <t>Ellaipillaichavady</t>
+  </si>
+  <si>
+    <t>Le Pondy Resort</t>
+  </si>
+  <si>
+    <t>Villas, Cottages</t>
+  </si>
+  <si>
+    <t>₹8000–15000</t>
+  </si>
+  <si>
+    <t>The Windflower</t>
+  </si>
+  <si>
+    <t>Luxury Rooms</t>
+  </si>
+  <si>
+    <t>₹9000–14000</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Windflower+Pondicherry</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Ocean Spray</t>
+  </si>
+  <si>
+    <t>Villas</t>
+  </si>
+  <si>
+    <t>₹7000–13000</t>
+  </si>
+  <si>
+    <t>2 PM / 11 AM</t>
+  </si>
+  <si>
+    <t>Manjakuppam</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Ocean+Spray+Resort</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Paradise Lagoon</t>
+  </si>
+  <si>
+    <t>Cottages</t>
+  </si>
+  <si>
+    <t>₹6000–10000</t>
+  </si>
+  <si>
+    <t>1 PM / 11 AM</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Paradise+Lagoon+Resort</t>
+  </si>
+  <si>
+    <t>https://share.google/9ia9Nl6bPUiaaQtYb</t>
+  </si>
+  <si>
+    <t>080 6221 0104</t>
+  </si>
+  <si>
+    <t>Manavely Revenue Village</t>
+  </si>
+  <si>
+    <t>https://share.google/llCoTQClNfmscmQpj</t>
+  </si>
+  <si>
+    <t>https://share.google/258V5VbDn89N2uccO</t>
+  </si>
+  <si>
+    <t>090039 45678</t>
+  </si>
+  <si>
+    <t>091505 99901</t>
+  </si>
+  <si>
+    <t>Pooranankuppam</t>
+  </si>
+  <si>
+    <t>https://share.google/FcEcSDZ50iEFUGkXI</t>
+  </si>
+  <si>
+    <t>Sri Balaji PG</t>
+  </si>
+  <si>
+    <t>Single, Shared</t>
+  </si>
+  <si>
+    <t>₹4500–7000</t>
+  </si>
+  <si>
+    <t>Flexible</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Balaji+PG+Puducherry</t>
+  </si>
+  <si>
+    <t>Green Homes PG</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>₹5000–6500</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Green+Homes+PG+Puducherry</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Auro PG Stay</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>₹6000–8000</t>
+  </si>
+  <si>
+    <t>Auroville</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Auro+PG</t>
+  </si>
+  <si>
+    <t>Student Nest</t>
+  </si>
+  <si>
+    <t>₹4000–6000</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Student+Nest+PG</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>https://share.google/Q5f0Ox93ZqduUAVvm</t>
+  </si>
+  <si>
+    <t>063698 40004</t>
+  </si>
+  <si>
+    <t>T.C Kootroad</t>
+  </si>
+  <si>
+    <t>https://share.google/zhk3fXGC2yNUmZqcf</t>
+  </si>
+  <si>
+    <t>094886 69650</t>
+  </si>
+  <si>
+    <t>Edayanchavadi</t>
+  </si>
+  <si>
+    <t>https://share.google/pnF2w4mNyQXe1U9Bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91 81228 95011 </t>
+  </si>
+  <si>
+    <t>079047 71438</t>
+  </si>
+  <si>
+    <t>https://share.google/CtI0lJbP1kSTqzI5r</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Villa Shanti</t>
+  </si>
+  <si>
+    <t>Deluxe Rooms</t>
+  </si>
+  <si>
+    <t>₹5500–7500</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Villa+Shanti+Pondicherry</t>
+  </si>
+  <si>
+    <t>La Maison Charu</t>
+  </si>
+  <si>
+    <t>Heritage Rooms</t>
+  </si>
+  <si>
+    <t>₹4500–6500</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=La+Maison+Charu</t>
+  </si>
+  <si>
+    <t>Anandha Inn</t>
+  </si>
+  <si>
+    <t>Budget Rooms</t>
+  </si>
+  <si>
+    <t>₹1800–3000</t>
+  </si>
+  <si>
+    <t>MG Road</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Anandha+Inn+Pondicherry</t>
+  </si>
+  <si>
+    <t>Coramandel Stay</t>
+  </si>
+  <si>
+    <t>Service Apartments</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Coramandel+Stay</t>
+  </si>
+  <si>
+    <t>0413 420 0028</t>
+  </si>
+  <si>
+    <t>https://share.google/u7uqJ3l5Y4zTq88lu</t>
+  </si>
+  <si>
+    <t>https://share.google/9pNuqmBN4CBLP4CHE</t>
+  </si>
+  <si>
+    <t>099441 36186</t>
+  </si>
+  <si>
+    <t>079 6921 9991</t>
+  </si>
+  <si>
+    <t>https://share.google/IYfxIdFCXvAgGqdsK</t>
+  </si>
+  <si>
+    <t>https://share.google/H5kG91zBeIj6WhC2x</t>
+  </si>
+  <si>
+    <t>093454 52373</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +508,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,10 +534,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,8 +549,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,25 +872,25 @@
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1"/>
+    <col min="9" max="9" width="41.109375" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1"/>
     <col min="15" max="15" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -554,33 +944,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8F495-046F-40CA-9359-31D115372C31}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="62.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="32.28515625" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.88671875" customWidth="1"/>
     <col min="15" max="15" width="38" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -613,32 +1003,187 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{40E9AB72-46BB-4F6F-B63F-2B687D8F6206}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{25B9B671-5B7C-4997-86CA-CDD53E60BE05}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{05CA5A9E-F954-496B-B8B5-FCEB9B619342}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{8F6AF704-AC09-4766-9A1E-2FE007BAA931}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{6ACB8112-780A-4CDE-8086-002CAAC60466}"/>
+    <hyperlink ref="F2:F6" r:id="rId6" display="https://maps.google.com/?q=Hotel+Annamalai+International+Puducherry" xr:uid="{61BBF59E-8D01-4AED-943F-1EC86484BA78}"/>
+    <hyperlink ref="H2:H6" r:id="rId7" display="0413 224 7001" xr:uid="{E7E66800-6961-46A1-BF27-CEDA73FC1641}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FDBE46-DF3E-4A9D-BEC4-66BB5D4988DB}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="H5" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -667,33 +1212,157 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2:F5" r:id="rId1" display="https://maps.google.com/?q=Le+Pondy+Resort" xr:uid="{34417C45-C808-45A3-9920-CAD6695CA5F8}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{AB1770AC-4CD0-42BE-B3C7-574B4918C675}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{BE83F97E-8FF4-4022-BDBA-C134A01110FB}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{638D1694-97A5-4E03-BA99-E0B3F1F49B61}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{267FE1B5-7A5A-4B83-A87B-9BD7BB3E1F07}"/>
+    <hyperlink ref="H2:H5" r:id="rId6" display="0471 350 5303" xr:uid="{199F809A-D294-49BA-9CB3-26788AAAFD4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E716DA67-D52D-46D3-9D38-FEFFF5634260}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -722,33 +1391,160 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{365688EE-641A-4581-9F9F-0BF001FC4175}"/>
+    <hyperlink ref="F2:F5" r:id="rId2" display="https://maps.google.com/?q=Balaji+PG+Puducherry" xr:uid="{738AC66D-187C-403C-AF2A-7ABBEDC0AAEE}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{D382A99D-B1D7-4175-96AC-DE426C049BD9}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{C2253AE9-271A-45CF-9AA0-3565D2531788}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{86D90ED6-63E0-497F-B9D8-2499BC8A51B2}"/>
+    <hyperlink ref="H2:H6" r:id="rId6" display="063698 40004" xr:uid="{DED0FE34-0816-4036-BB82-7A6D96D24BBB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A3CA36-64CA-46F2-B10B-2286DEFF68E8}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -777,7 +1573,137 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2:F5" r:id="rId1" display="https://maps.google.com/?q=Villa+Shanti+Pondicherry" xr:uid="{127B0D1B-E469-4B90-A669-BB117DA249FD}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{333F5969-1ED6-468D-ADD5-A264F890F4FF}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{3DE9FE7C-E538-46F6-9D1C-FCC53879CBED}"/>
+    <hyperlink ref="H3" r:id="rId4" display="https://www.google.com/search?sca_esv=cbcc352c89b9e229&amp;aep=1&amp;sxsrf=ANbL-n7xzk9FT6TkubPcGAfKS0W88DIP8A:1768416059665&amp;q=La+Maison+Charu+pondicherry+-+images+and+contact+number&amp;source=lnms&amp;fbs=ADc_l-byipRaccqV0jmfPhi1DgzPkIbk0HG8UBQNbHd4S9AjVkuc0t6t4dDUPoihiWakL0gKcgvJQ6dh4hYbXoT_fwshks8gWsykvAX68eoqXZjDfa9On1_4wgKAmTeTlA6k0Hc1eggvTyrn_ya2VdBxqTJ9BJvpN06wz71Fa1Ek2QknbrKL3nYZqi_ZTJkdkt-eH2AHWUflHLNOsmdnJ-OjJm2VZamNZ08apXgA3ChL0IEY7-WmC3I&amp;sa=X&amp;ved=2ahUKEwiDu7SY14uSAxUOSGwGHUK6OOAQ0pQJegQIDRAB&amp;biw=1536&amp;bih=730&amp;dpr=1.25&amp;aic=0" xr:uid="{2A4A43E3-F8AE-4A9B-90E3-6E8EAF68DEDD}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{6B9D1533-2E5E-45EF-9D7C-FB329A04CA0D}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{F6A7321E-66DC-4C8E-8476-5D6E82885466}"/>
+    <hyperlink ref="I4" r:id="rId7" xr:uid="{26BEEE71-9621-404F-9B53-3E97F9364B77}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{2CF70C3B-B058-4C69-A551-D92A50B68BA4}"/>
+    <hyperlink ref="H5" r:id="rId9" xr:uid="{EE8B4E10-74FE-41D7-B4ED-30A134297BD5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>